--- a/data/trans_bre/P1410-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P1410-Edad-trans_bre.xlsx
@@ -660,21 +660,19 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.5786032861451069</v>
+        <v>-0.5861960710599096</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.1882253837922766</v>
+        <v>-0.1853827555235674</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.8458500673466605</v>
+        <v>-0.8489677255129318</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.732333751938366</v>
+        <v>-2.689193037659707</v>
       </c>
       <c r="G5" s="6" t="inlineStr"/>
-      <c r="H5" s="6" t="n">
-        <v>-0.7561847352220599</v>
-      </c>
+      <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="inlineStr"/>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -686,16 +684,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3806125663429288</v>
+        <v>0.380760102066492</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.047779556257934</v>
+        <v>2.042524744576367</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.451134852282384</v>
+        <v>1.467305260564447</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1.716010189866326</v>
+        <v>1.728577923119028</v>
       </c>
       <c r="G6" s="6" t="inlineStr"/>
       <c r="H6" s="6" t="inlineStr"/>
@@ -748,16 +746,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.5178853564069966</v>
+        <v>-0.5825407028548418</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.4531336335935551</v>
+        <v>-0.5954592615508102</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1718379660441157</v>
+        <v>0.1735809585256891</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-1.086578948005073</v>
+        <v>-1.202457024808206</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="inlineStr"/>
@@ -772,16 +770,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8561112831615086</v>
+        <v>0.7883503997464977</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.746782947636778</v>
+        <v>0.6362030224615141</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.550263665370141</v>
+        <v>1.701623280862751</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.8535326966533018</v>
+        <v>0.9249077929680583</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
       <c r="H9" s="6" t="inlineStr"/>
@@ -809,7 +807,7 @@
         <v>0.787962119708014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>-0.1611971622014626</v>
+        <v>-0.1611971622014624</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>3.555936986848677</v>
@@ -821,7 +819,7 @@
         <v>2.699053754509616</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>-0.1669945267406236</v>
+        <v>-0.1669945267406235</v>
       </c>
     </row>
     <row r="11">
@@ -832,28 +830,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.2828082550857898</v>
+        <v>0.2634325372107944</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.7512891773819594</v>
+        <v>-0.770513757206071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.005984486652563277</v>
+        <v>0.05706734866521222</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.373487085526988</v>
+        <v>-1.389262569872084</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.1528524771018486</v>
+        <v>-0.2812417301872946</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.585714417375323</v>
+        <v>-0.5778805762914225</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.4862510846435046</v>
+        <v>-0.5123678768270739</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.7612458903441442</v>
+        <v>-0.8033672051157638</v>
       </c>
     </row>
     <row r="12">
@@ -864,24 +862,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.089444526539609</v>
+        <v>2.095597733206167</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.602280296653768</v>
+        <v>1.621265265306639</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.781918587659376</v>
+        <v>1.933129906336974</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.7691155838757051</v>
+        <v>0.7734192309495322</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="n">
-        <v>3.236445697492643</v>
+        <v>3.006969544915641</v>
       </c>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>2.449929131795257</v>
+        <v>2.281279315625567</v>
       </c>
     </row>
     <row r="13">
@@ -928,28 +926,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.884275845602249</v>
+        <v>-2.505553863924919</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-2.841434630271267</v>
+        <v>-3.042510913838404</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.9888605890897959</v>
+        <v>-1.146903985524523</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-2.626726914311108</v>
+        <v>-2.733496905109836</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6649771940318885</v>
+        <v>-0.6552943685777776</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.8869278480839059</v>
+        <v>-0.9017091468388722</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4154983331178011</v>
+        <v>-0.4232253178989493</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.6048209978151896</v>
+        <v>-0.620209415574429</v>
       </c>
     </row>
     <row r="15">
@@ -960,28 +958,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.264988669002179</v>
+        <v>1.308402304658835</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1674668887277023</v>
+        <v>0.1374445129253762</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.374368365103706</v>
+        <v>2.00019958641883</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.565232551673138</v>
+        <v>0.5297993973923136</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6619289484391568</v>
+        <v>0.7022689072176677</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.3821303338220445</v>
+        <v>0.3510206910795857</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.008274355214849</v>
+        <v>1.8006412053844</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.3269790806332639</v>
+        <v>0.2767700045510402</v>
       </c>
     </row>
     <row r="16">
@@ -1005,7 +1003,7 @@
         <v>-2.623885398693619</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-5.338275716249372</v>
+        <v>-5.338275716249371</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.5422929734154543</v>
@@ -1017,7 +1015,7 @@
         <v>-0.4376416578434164</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.6185972198582805</v>
+        <v>-0.6185972198582804</v>
       </c>
     </row>
     <row r="17">
@@ -1028,28 +1026,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-9.716688437846841</v>
+        <v>-9.978755776327858</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.430526830524527</v>
+        <v>-2.47482783942242</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-5.688920249177838</v>
+        <v>-5.90589344533464</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-7.808434045796828</v>
+        <v>-7.815622049345404</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.7313828442732745</v>
+        <v>-0.7495827498149034</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3783732377305311</v>
+        <v>-0.3783398950185833</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.7167171283877543</v>
+        <v>-0.715720624056718</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.7498909559227788</v>
+        <v>-0.7625283062485022</v>
       </c>
     </row>
     <row r="18">
@@ -1060,28 +1058,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-2.267426178586946</v>
+        <v>-2.330203038738632</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>3.551694022007823</v>
+        <v>3.527215753789031</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1561266665637141</v>
+        <v>0.1644690449072992</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>-2.963238896091924</v>
+        <v>-2.951705968364984</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>-0.2263809741101373</v>
+        <v>-0.2440816338135157</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.9278791264129739</v>
+        <v>0.9241531485173871</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.05034984240630164</v>
+        <v>0.06837399718844496</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>-0.4130063955521276</v>
+        <v>-0.4053961545688634</v>
       </c>
     </row>
     <row r="19">
@@ -1128,28 +1126,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-10.99301705462673</v>
+        <v>-10.97055604654019</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-6.222051596381392</v>
+        <v>-6.35645963360173</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-5.655942067242123</v>
+        <v>-5.895772267164881</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-5.721253330917708</v>
+        <v>-5.71966769485953</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6135753808103702</v>
+        <v>-0.6095052118944553</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4891055718991671</v>
+        <v>-0.5164475316871827</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3795476906502182</v>
+        <v>-0.3798885596007298</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5150553326786989</v>
+        <v>-0.5191814001576828</v>
       </c>
     </row>
     <row r="21">
@@ -1160,28 +1158,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-0.9904147790501359</v>
+        <v>-0.8289594754320667</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>2.852779209494805</v>
+        <v>3.09628686827868</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>4.316288077205333</v>
+        <v>4.246291101362903</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2116882060030009</v>
+        <v>-0.163171490290045</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.06224769221152962</v>
+        <v>-0.06612818732367731</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3687202179579899</v>
+        <v>0.3964216137852916</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4327141438829047</v>
+        <v>0.4406813286168701</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.03003879705768379</v>
+        <v>-0.02010270986669137</v>
       </c>
     </row>
     <row r="22">
@@ -1205,7 +1203,7 @@
         <v>1.296949728486627</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-2.74451958993775</v>
+        <v>-2.744519589937758</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2746410631649794</v>
@@ -1217,7 +1215,7 @@
         <v>0.08109333088686216</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.1281663695838546</v>
+        <v>-0.1281663695838549</v>
       </c>
     </row>
     <row r="23">
@@ -1228,28 +1226,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-13.08977355115909</v>
+        <v>-13.00022934726317</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.29801560470144</v>
+        <v>-9.8906877930891</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-4.310908064922791</v>
+        <v>-4.519001673836509</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-7.551938729883282</v>
+        <v>-7.374649618169121</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.5057570919797058</v>
+        <v>-0.4985260368333848</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.4034683560067497</v>
+        <v>-0.3802546198078357</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2400602478357932</v>
+        <v>-0.2388932930981463</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3058463045086469</v>
+        <v>-0.3028988285383287</v>
       </c>
     </row>
     <row r="24">
@@ -1260,28 +1258,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.6871374926861484</v>
+        <v>0.6460462672211739</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.981050061240587</v>
+        <v>3.803931074823405</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.199773310429666</v>
+        <v>7.474320551525583</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1.570955221963917</v>
+        <v>2.000394218892999</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.04219418477402554</v>
+        <v>0.04047401790697189</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1817746334270043</v>
+        <v>0.2246394121944728</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6329143213041093</v>
+        <v>0.5500314852453311</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.08346208299348612</v>
+        <v>0.1181102287441518</v>
       </c>
     </row>
     <row r="25">
@@ -1305,7 +1303,7 @@
         <v>0.7427249592574638</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>-1.039492761678838</v>
+        <v>-1.039492761678837</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>-0.1818681144445893</v>
@@ -1317,7 +1315,7 @@
         <v>0.1976420214730248</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.1921249572074323</v>
+        <v>-0.1921249572074322</v>
       </c>
     </row>
     <row r="26">
@@ -1328,28 +1326,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.791909451317128</v>
+        <v>-1.778475045236567</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-0.6482899571850285</v>
+        <v>-0.6463471149043439</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-0.2386170662781325</v>
+        <v>-0.3026644149198275</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-2.013253258940576</v>
+        <v>-1.918095868971474</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3458688064624474</v>
+        <v>-0.3526430993535544</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1479291582105703</v>
+        <v>-0.1484637273349824</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06336898315999227</v>
+        <v>-0.06915815720915595</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.3302182938581203</v>
+        <v>-0.3201446093119124</v>
       </c>
     </row>
     <row r="27">
@@ -1360,28 +1358,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.1521888375909968</v>
+        <v>0.22390970156494</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>1.216785364103195</v>
+        <v>1.242886115246654</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1.610031201507391</v>
+        <v>1.671162371136508</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-0.1646410968118982</v>
+        <v>-0.1536653161486252</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.04014205474178545</v>
+        <v>0.05973475441316597</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3539187906690376</v>
+        <v>0.3622730479623981</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4797284824627503</v>
+        <v>0.5069869268149088</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.0281049445756226</v>
+        <v>-0.03105315278286058</v>
       </c>
     </row>
     <row r="28">
